--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>CaseID</t>
   </si>
@@ -62,9 +62,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>attachment</t>
-  </si>
-  <si>
     <t>total_price</t>
   </si>
   <si>
@@ -92,125 +89,132 @@
     <t>办公用品</t>
   </si>
   <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>purchase_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_2</t>
+  </si>
+  <si>
+    <t>purchase_3</t>
+  </si>
+  <si>
+    <t>小于100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_4</t>
+  </si>
+  <si>
+    <t>purchase_5</t>
+  </si>
+  <si>
+    <t>汇款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int16,"price":96,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":3.9,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int10,"price":50,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":50.01,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int16,"price":!!Double96,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":!!Double3.9,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":!!Double50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int10,"price":!!Double50,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":!!Double50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":!!Double50.01,"name":"明细清单02","spec":"10支/盒"}]}</t>
+  </si>
+  <si>
+    <t>purchase_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053","service_order_id":"","timeline_id":""}</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>purchase_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_2</t>
-  </si>
-  <si>
-    <t>purchase_3</t>
-  </si>
-  <si>
-    <t>小于100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起人为指定部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_4</t>
-  </si>
-  <si>
-    <t>purchase_5</t>
-  </si>
-  <si>
-    <t>汇款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int16,"price":96,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":3.9,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int10,"price":50,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":50.01,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int16,"price":!!Double96,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":!!Double3.9,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":!!Double50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int10,"price":!!Double50,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>{"purchase_detail":[{"unit":"盒","quantity":!!Int5,"price":!!Double50,"name":"明细清单01","spec":"100g/盒"},{"unit":"盒","quantity":!!Int1,"price":!!Double50.01,"name":"明细清单02","spec":"10支/盒"}]}</t>
-  </si>
-  <si>
-    <t>!!String[{"InstanceId":"","bucket":"krhr","created_at":"2017-11-06T22:21:09+08:00","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","domain":"oss-cn-beijing.aliyuncs.com","etag":"982A529756E2A2AFCED6FA520482DBAC","file_id":"bb9a98c1-c2fd-11e7-9c79-5254001aba5d","is_deleted":!!Booleanfalse,"mime_type":"image/jpeg","name":"IMG_20171029_124310R.jpg","path":"00b19169-fc38-4e51-a99f-98f31ccaa46d/form/5ceb080b-0e25-11e7-b0e5-00163e007053/b4c9bae4-c2fd-11e7-9c79-5254001aba5d/IMG_20171029_124310R.jpg","resource_owner":"侯龙","size":!!Int9326607,"status":"created","tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","type":"form","updated_at":"2017-11-06T22:21:09+08:00","uuid":"bb9a98c1-c2fd-11e7-9c79-5254001aba5d"},{"InstanceId":"","bucket":"krhr","created_at":"2017-11-06T22:21:49+08:00","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","deleted_at":"0001-01-01T00:00:00Z","domain":"oss-cn-beijing.aliyuncs.com","etag":"C489608D4B6BC41B6229F4D66F56FDF4","file_id":"d3a59573-c2fd-11e7-9c79-5254001aba5d","is_deleted":!!Booleanfalse,"mime_type":"image/png","name":"dts_featured_ath_clr100.png","path":"00b19169-fc38-4e51-a99f-98f31ccaa46d/form/5ceb080b-0e25-11e7-b0e5-00163e007053/d365a4f4-c2fd-11e7-9c79-5254001aba5d/dts_featured_ath_clr100.png","resource_owner":"侯龙","size":!!Int11554,"status":"created","tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","type":"form","updated_at":"2017-11-06T22:21:49+08:00","uuid":"d3a59573-c2fd-11e7-9c79-5254001aba5d"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!String[{"InstanceId":"","bucket":"krhr","created_at":"2017-11-06T22:21:09+08:00","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","domain":"oss-cn-beijing.aliyuncs.com","etag":"982A529756E2A2AFCED6FA520482DBAC","file_id":"bb9a98c1-c2fd-11e7-9c79-5254001aba5d","is_deleted":false,"mime_type":"image/jpeg","name":"IMG_20171029_124310R.jpg","path":"00b19169-fc38-4e51-a99f-98f31ccaa46d/form/5ceb080b-0e25-11e7-b0e5-00163e007053/b4c9bae4-c2fd-11e7-9c79-5254001aba5d/IMG_20171029_124310R.jpg","resource_owner":"侯龙","size":!!Int9326607,"status":"created","tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","type":"form","updated_at":"2017-11-06T22:21:09+08:00","uuid":"bb9a98c1-c2fd-11e7-9c79-5254001aba5d"},{"InstanceId":"","bucket":"krhr","created_at":"2017-11-06T22:21:49+08:00","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","deleted_at":"0001-01-01T00:00:00Z","domain":"oss-cn-beijing.aliyuncs.com","etag":"C489608D4B6BC41B6229F4D66F56FDF4","file_id":"d3a59573-c2fd-11e7-9c79-5254001aba5d","is_deleted":false,"mime_type":"image/png","name":"dts_featured_ath_clr100.png","path":"00b19169-fc38-4e51-a99f-98f31ccaa46d/form/5ceb080b-0e25-11e7-b0e5-00163e007053/d365a4f4-c2fd-11e7-9c79-5254001aba5d/dts_featured_ath_clr100.png","resource_owner":"侯龙","size":!!Int11554,"status":"created","tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","type":"form","updated_at":"2017-11-06T22:21:49+08:00","uuid":"d3a59573-c2fd-11e7-9c79-5254001aba5d"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"employee_id":"${Auth.employee_id}","service_order_id":"","timeline_id":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人为指定人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_6</t>
+  </si>
+  <si>
+    <t>发起人为指定人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +616,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -638,25 +642,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -679,468 +682,502 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>99.9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>99.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <v>99.9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>100.01</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H7" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4">
-        <v>99.9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>100.01</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>99.9</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>99.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>100.01</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
-        <v>99.9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>100.01</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>CaseID</t>
   </si>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>发起人为指定人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -852,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,8 +974,8 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="D3" t="s">
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -1014,8 +1018,8 @@
       <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4">
-        <v>100</v>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -1102,8 +1106,8 @@
       <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6">
-        <v>100</v>
+      <c r="D6" t="s">
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>

--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -68,9 +68,6 @@
     <t>deliver_date</t>
   </si>
   <si>
-    <t>2017-11-06T22:18:31+08:00</t>
-  </si>
-  <si>
     <t>tabular_sections</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   <si>
     <t>!!Int100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-06T22:18:31+08:00</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -649,7 +649,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
@@ -677,172 +677,172 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>99.9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>99.9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>100.01</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +857,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -890,298 +890,298 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>99.9</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>99.9</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>100.01</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>CaseID</t>
   </si>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>发起人为指定人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,7 +696,7 @@
         <v>99.9</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -726,7 +722,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -752,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -778,7 +774,7 @@
         <v>99.9</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -804,7 +800,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -830,7 +826,7 @@
         <v>100.01</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
@@ -857,7 +853,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,7 +942,7 @@
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
@@ -974,8 +970,8 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
+      <c r="D3">
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -990,7 +986,7 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -1018,8 +1014,8 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
+      <c r="D4">
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -1034,7 +1030,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1078,7 +1074,7 @@
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -1106,8 +1102,8 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
+      <c r="D6">
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -1122,7 +1118,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1166,7 +1162,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>

--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -236,6 +236,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,8 +267,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,62 +591,64 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -645,199 +657,201 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>99.9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>99.9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100.01</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -853,330 +867,333 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>99.9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>99.9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>100.01</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/sources/case/purchase.xlsx
+++ b/sources/case/purchase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
